--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-922521.3975153167</v>
+        <v>-924408.9790317193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>65.85400085191066</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.9985087063598</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>17.81671766694103</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.4435927426899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.05696454450613</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>39.19922718108447</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.53293573769265</v>
+        <v>216.6993815150877</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>103.528048749137</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>111.5317316087713</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>223.1498336210773</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>18.53783461872564</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8698659703784</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>39.84525176087139</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>174.3062600431763</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051979</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>54.76523371349963</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916432</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>106.8698659703789</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>145.6827841711467</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.2787299119462</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>31.08391773098157</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>58.28364188461607</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>78.67531269948236</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692802</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646715</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646715</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.846446409823</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>272.8312459770187</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.181128500978</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500978</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500978</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500978</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500978</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4890,16 +4890,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,16 +5042,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.2830904386603</v>
+        <v>284.1174986139255</v>
       </c>
       <c r="C13" t="n">
-        <v>355.2830904386603</v>
+        <v>284.1174986139255</v>
       </c>
       <c r="D13" t="n">
-        <v>205.1664510263246</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>205.1664510263246</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>205.1664510263246</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>205.1664510263246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104475</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X13" t="n">
-        <v>757.7241344124302</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="Y13" t="n">
-        <v>536.9315552689001</v>
+        <v>465.7659634441652</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,19 +5303,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028574</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028574</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028574</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028574</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028574</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.84934122136</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.84934122136</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.84934122136</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.84934122136</v>
+        <v>527.1935825831081</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>306.401003439578</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5525,16 +5525,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>302.6521487650455</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>152.5355093527097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>152.5355093527097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>152.5355093527097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.2830904386608</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D22" t="n">
+        <v>507.0827848727881</v>
+      </c>
+      <c r="E22" t="n">
+        <v>359.1696912903951</v>
+      </c>
+      <c r="F22" t="n">
+        <v>359.1696912903951</v>
+      </c>
+      <c r="G22" t="n">
+        <v>359.1696912903951</v>
+      </c>
+      <c r="H22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="I22" t="n">
         <v>97.21709146028584</v>
-      </c>
-      <c r="E22" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="F22" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="G22" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97.21709146028581</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97.21709146028581</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347409</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W22" t="n">
-        <v>985.713685310448</v>
+        <v>838.8478891153636</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124307</v>
+        <v>838.8478891153636</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689005</v>
+        <v>838.8478891153636</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>986.0022165609668</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>731.3177283550799</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181193</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>213.911007420102</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>213.911007420102</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>723.7852367831648</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598906</v>
+        <v>439.5324299542215</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133544</v>
+        <v>439.5324299542215</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733383</v>
+        <v>439.5324299542215</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723159</v>
+        <v>439.5324299542215</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557763</v>
+        <v>360.0624171264615</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386965</v>
+        <v>902.6804289818956</v>
       </c>
       <c r="X31" t="n">
-        <v>785.76598152205</v>
+        <v>730.4517433652492</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598906</v>
+        <v>565.4200295030901</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6835,31 +6835,31 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,7 +6868,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7312,7 +7312,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7321,19 +7321,19 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7394,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7655,19 +7655,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,16 +7807,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>130.0776383994867</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.04396239715776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642736</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.9867284210659</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>111.931092355401</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.728334749878</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.6782523069341</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>60.37695512824898</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>140.8402141654443</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644303</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>255.4390806056094</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>35.12857450503926</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.54247869489163</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1214025.446096308</v>
+        <v>1214025.446096307</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1214025.446096308</v>
+        <v>1214025.446096307</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="I2" t="n">
+        <v>175963.0768819689</v>
+      </c>
+      <c r="J2" t="n">
         <v>175963.076881969</v>
       </c>
-      <c r="J2" t="n">
-        <v>175963.0768819689</v>
-      </c>
       <c r="K2" t="n">
-        <v>183069.9618053716</v>
+        <v>183069.9618053712</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194638</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284581</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284584</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687075</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106732</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-653725.4268450147</v>
       </c>
       <c r="C6" t="n">
-        <v>-63757.54763047012</v>
+        <v>-63757.5476304702</v>
       </c>
       <c r="D6" t="n">
-        <v>-63757.54763047017</v>
+        <v>-63757.54763047025</v>
       </c>
       <c r="E6" t="n">
-        <v>-463358.8931305142</v>
+        <v>-463456.3522564866</v>
       </c>
       <c r="F6" t="n">
-        <v>61801.14334638174</v>
+        <v>61703.68422040949</v>
       </c>
       <c r="G6" t="n">
-        <v>61801.14334638162</v>
+        <v>61703.68422040943</v>
       </c>
       <c r="H6" t="n">
-        <v>61801.14334638149</v>
+        <v>61703.68422040952</v>
       </c>
       <c r="I6" t="n">
-        <v>61801.14334638164</v>
+        <v>61703.68422040927</v>
       </c>
       <c r="J6" t="n">
-        <v>-114622.0758462114</v>
+        <v>-114719.5349721832</v>
       </c>
       <c r="K6" t="n">
-        <v>1939.917871235957</v>
+        <v>1921.424133300959</v>
       </c>
       <c r="L6" t="n">
-        <v>32082.99077038064</v>
+        <v>32082.9907703808</v>
       </c>
       <c r="M6" t="n">
-        <v>-92375.11766258994</v>
+        <v>-92375.11766258965</v>
       </c>
       <c r="N6" t="n">
-        <v>42425.89757124748</v>
+        <v>42425.89757124749</v>
       </c>
       <c r="O6" t="n">
-        <v>42425.89757124727</v>
+        <v>42425.89757124746</v>
       </c>
       <c r="P6" t="n">
-        <v>-1736.707731598144</v>
+        <v>-1736.70773159861</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>261.8982576182242</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.2394299496938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>138.3541711748541</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.14106060940486</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.6768771189745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>347.0387114749691</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.0517176144022</v>
+        <v>1.885271837007053</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>261.7448430218706</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>104.9165887488865</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>63.13204062090043</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
